--- a/data/trans_dic/POLIPATOLOGIA-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 23,33</t>
+          <t>13,96; 23,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,79; 30,13</t>
+          <t>19,76; 29,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,37; 35,54</t>
+          <t>25,17; 36,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,5; 31,52</t>
+          <t>20,6; 32,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,95; 47,49</t>
+          <t>35,54; 47,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,14; 38,71</t>
+          <t>30,68; 38,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 25,77</t>
+          <t>18,71; 25,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,47; 37,03</t>
+          <t>29,25; 37,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,09; 35,95</t>
+          <t>28,94; 35,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 21,76</t>
+          <t>14,64; 21,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,98; 25,0</t>
+          <t>16,95; 24,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 25,57</t>
+          <t>18,28; 25,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,34; 31,55</t>
+          <t>22,23; 31,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,32; 45,02</t>
+          <t>36,25; 44,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,33; 38,88</t>
+          <t>30,74; 39,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,12; 39,59</t>
+          <t>30,86; 39,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,32; 43,88</t>
+          <t>36,07; 43,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,73; 32,36</t>
+          <t>26,56; 32,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,85; 31,3</t>
+          <t>25,28; 31,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,72; 31,66</t>
+          <t>25,89; 31,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,77; 37,0</t>
+          <t>30,57; 36,42</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 20,98</t>
+          <t>12,61; 20,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,3; 33,38</t>
+          <t>23,04; 33,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 23,4</t>
+          <t>15,23; 23,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,38; 41,66</t>
+          <t>31,21; 41,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,97; 35,62</t>
+          <t>25,68; 35,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,11; 41,69</t>
+          <t>30,98; 41,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,15; 37,66</t>
+          <t>27,13; 37,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,53; 51,37</t>
+          <t>42,68; 51,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,6; 27,52</t>
+          <t>20,68; 27,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,78; 36,37</t>
+          <t>28,6; 36,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,34; 29,4</t>
+          <t>22,5; 29,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,96; 45,58</t>
+          <t>38,85; 45,64</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 25,07</t>
+          <t>17,21; 25,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,01; 26,81</t>
+          <t>20,05; 27,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,32; 34,16</t>
+          <t>24,2; 33,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,01; 43,2</t>
+          <t>30,07; 42,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,46; 35,49</t>
+          <t>25,99; 35,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,24; 46,85</t>
+          <t>39,13; 46,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,83; 48,6</t>
+          <t>38,05; 48,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,67; 56,15</t>
+          <t>44,04; 56,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,98; 29,23</t>
+          <t>22,79; 28,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,78; 36,12</t>
+          <t>30,56; 35,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,56; 39,89</t>
+          <t>32,68; 39,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,53; 48,35</t>
+          <t>39,55; 48,43</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,84; 18,43</t>
+          <t>8,87; 18,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,2; 35,31</t>
+          <t>23,02; 35,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,91; 28,86</t>
+          <t>17,7; 29,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,39; 38,6</t>
+          <t>27,29; 39,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,62; 37,98</t>
+          <t>24,04; 37,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,5; 65,16</t>
+          <t>52,63; 66,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,98; 47,29</t>
+          <t>34,17; 47,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33,9; 55,35</t>
+          <t>33,97; 55,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,27; 25,87</t>
+          <t>17,67; 26,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38,65; 48,19</t>
+          <t>38,92; 48,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,67; 36,44</t>
+          <t>27,01; 36,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,3; 46,15</t>
+          <t>34,24; 46,34</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,43; 23,55</t>
+          <t>14,36; 23,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,71; 38,87</t>
+          <t>27,18; 38,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,07; 29,55</t>
+          <t>19,35; 29,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,19; 49,4</t>
+          <t>38,42; 49,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,15; 41,25</t>
+          <t>30,06; 41,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,91; 51,67</t>
+          <t>39,02; 51,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,99; 40,27</t>
+          <t>28,6; 40,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>44,48; 54,81</t>
+          <t>44,36; 54,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,96; 30,57</t>
+          <t>23,52; 31,41</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>34,92; 43,38</t>
+          <t>35,73; 44,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,49; 33,76</t>
+          <t>25,45; 33,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>43,06; 50,38</t>
+          <t>43,1; 50,44</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,33; 22,89</t>
+          <t>16,04; 22,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,18; 30,34</t>
+          <t>22,85; 30,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,61; 25,08</t>
+          <t>18,54; 25,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,04; 44,9</t>
+          <t>36,35; 44,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,42; 33,5</t>
+          <t>26,19; 33,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,04; 43,41</t>
+          <t>35,92; 43,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,73; 35,93</t>
+          <t>28,98; 36,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>60,69; 79,21</t>
+          <t>60,94; 80,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,22; 26,93</t>
+          <t>22,15; 26,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,56; 35,91</t>
+          <t>30,63; 36,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,9; 29,91</t>
+          <t>24,92; 29,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,79; 66,82</t>
+          <t>50,82; 67,04</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,19; 28,53</t>
+          <t>22,0; 28,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,82</t>
+          <t>16,82; 22,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,52; 30,12</t>
+          <t>23,69; 29,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,49; 29,02</t>
+          <t>20,65; 29,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,93; 41,08</t>
+          <t>33,77; 40,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,53; 33,05</t>
+          <t>26,59; 33,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,99; 39,06</t>
+          <t>31,92; 39,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>34,62; 40,49</t>
+          <t>34,34; 40,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,94; 33,81</t>
+          <t>28,87; 33,89</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,87; 27,2</t>
+          <t>22,92; 27,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>28,91; 33,56</t>
+          <t>28,68; 33,71</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>28,44; 34,27</t>
+          <t>28,34; 34,04</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,38; 21,16</t>
+          <t>18,5; 21,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>22,79; 25,83</t>
+          <t>22,9; 25,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,38; 25,38</t>
+          <t>22,48; 25,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,72; 34,72</t>
+          <t>30,92; 34,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,92; 35,19</t>
+          <t>31,84; 35,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>37,14; 40,32</t>
+          <t>37,07; 40,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,38; 37,88</t>
+          <t>34,37; 37,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>45,5; 53,21</t>
+          <t>45,43; 52,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,96</t>
+          <t>25,55; 27,84</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>30,53; 32,86</t>
+          <t>30,55; 32,86</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>28,96; 31,24</t>
+          <t>29,05; 31,35</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>39,04; 43,55</t>
+          <t>39,14; 44,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/POLIPATOLOGIA-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,96; 23,28</t>
+          <t>14,08; 23,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,76; 29,83</t>
+          <t>19,53; 30,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,6; 32,3</t>
+          <t>20,34; 31,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,54; 47,63</t>
+          <t>35,78; 47,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,71; 25,54</t>
+          <t>18,78; 25,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,25; 37,39</t>
+          <t>28,88; 37,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,64; 21,64</t>
+          <t>14,88; 21,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,95; 24,83</t>
+          <t>17,03; 24,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,28; 25,64</t>
+          <t>18,48; 25,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,25; 44,98</t>
+          <t>36,07; 44,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,74; 39,35</t>
+          <t>29,97; 38,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,86; 39,44</t>
+          <t>31,34; 39,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,56; 32,54</t>
+          <t>26,4; 32,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,28; 31,33</t>
+          <t>25,22; 31,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,89; 31,83</t>
+          <t>25,81; 31,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,61; 20,81</t>
+          <t>12,52; 20,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,04; 33,49</t>
+          <t>23,03; 33,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,23; 23,54</t>
+          <t>15,03; 23,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,68; 35,96</t>
+          <t>26,1; 35,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,98; 41,94</t>
+          <t>31,34; 41,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,13; 37,63</t>
+          <t>26,82; 37,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,68; 27,1</t>
+          <t>20,64; 27,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,6; 36,47</t>
+          <t>28,56; 36,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,5; 29,3</t>
+          <t>22,41; 29,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 25,37</t>
+          <t>17,24; 25,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 27,0</t>
+          <t>20,03; 26,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,2; 33,72</t>
+          <t>24,32; 33,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,99; 35,68</t>
+          <t>25,76; 35,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,13; 46,67</t>
+          <t>39,46; 47,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,05; 48,44</t>
+          <t>37,6; 48,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,79; 28,93</t>
+          <t>22,91; 29,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,56; 35,79</t>
+          <t>30,66; 36,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,68; 39,69</t>
+          <t>32,52; 39,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 18,05</t>
+          <t>8,69; 18,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,02; 35,62</t>
+          <t>21,8; 34,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,7; 29,41</t>
+          <t>17,25; 28,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,04; 37,16</t>
+          <t>24,46; 38,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,63; 66,12</t>
+          <t>52,16; 65,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,17; 47,19</t>
+          <t>33,77; 47,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 26,23</t>
+          <t>17,73; 26,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38,92; 48,79</t>
+          <t>38,9; 48,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,01; 36,02</t>
+          <t>27,77; 36,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,36; 23,85</t>
+          <t>14,3; 23,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,18; 38,49</t>
+          <t>27,01; 38,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,35; 29,16</t>
+          <t>19,23; 29,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,06; 41,59</t>
+          <t>30,12; 41,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,02; 51,7</t>
+          <t>39,84; 52,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,6; 40,6</t>
+          <t>29,07; 40,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,52; 31,41</t>
+          <t>23,56; 30,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35,73; 44,37</t>
+          <t>35,45; 43,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,45; 33,49</t>
+          <t>25,69; 33,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,04; 22,56</t>
+          <t>16,37; 22,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,35</t>
+          <t>23,32; 30,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,54; 25,17</t>
+          <t>18,55; 25,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,19; 33,78</t>
+          <t>26,55; 33,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,92; 43,69</t>
+          <t>36,06; 43,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,98; 36,55</t>
+          <t>29,03; 36,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,15; 26,94</t>
+          <t>22,37; 26,91</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,63; 36,07</t>
+          <t>30,64; 36,28</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,92; 29,71</t>
+          <t>24,73; 29,87</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,0; 28,61</t>
+          <t>21,99; 28,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,82; 22,79</t>
+          <t>16,67; 22,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,69; 29,78</t>
+          <t>23,6; 30,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,77; 40,85</t>
+          <t>33,73; 40,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,59; 33,29</t>
+          <t>26,75; 33,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,92; 39,14</t>
+          <t>32,3; 39,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,87; 33,89</t>
+          <t>29,0; 33,77</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,92; 27,3</t>
+          <t>22,8; 27,21</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>28,68; 33,71</t>
+          <t>28,64; 33,47</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,5; 21,21</t>
+          <t>18,53; 21,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>22,9; 25,93</t>
+          <t>22,79; 26,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,48; 25,49</t>
+          <t>22,53; 25,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,84; 35,2</t>
+          <t>31,79; 35,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>37,07; 40,6</t>
+          <t>37,13; 40,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,37; 37,72</t>
+          <t>34,37; 37,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>25,55; 27,84</t>
+          <t>25,72; 27,75</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>30,55; 32,86</t>
+          <t>30,43; 32,74</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>29,05; 31,35</t>
+          <t>29,04; 31,24</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/POLIPATOLOGIA-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 23,12</t>
+          <t>13,69; 23,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,53; 30,19</t>
+          <t>19,79; 30,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,17; 36,01</t>
+          <t>24,37; 35,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,34; 31,83</t>
+          <t>20,5; 31,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,78; 47,85</t>
+          <t>35,95; 47,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,68; 38,85</t>
+          <t>30,14; 38,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,78; 25,71</t>
+          <t>18,38; 25,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,88; 37,04</t>
+          <t>29,47; 37,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,94; 35,78</t>
+          <t>29,09; 35,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,8</t>
+          <t>14,8; 21,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 24,92</t>
+          <t>16,98; 25,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,48; 25,59</t>
+          <t>18,23; 25,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,23; 31,27</t>
+          <t>22,34; 31,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,07; 44,6</t>
+          <t>36,32; 45,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,97; 38,8</t>
+          <t>30,33; 38,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,34; 39,97</t>
+          <t>31,12; 39,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,07; 43,65</t>
+          <t>36,32; 43,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,4; 32,47</t>
+          <t>26,73; 32,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,22; 31,14</t>
+          <t>24,85; 31,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 31,57</t>
+          <t>25,72; 31,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,57; 36,42</t>
+          <t>30,77; 37,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 20,66</t>
+          <t>12,55; 20,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,03; 33,05</t>
+          <t>23,3; 33,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,03; 23,62</t>
+          <t>15,56; 23,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,21; 41,61</t>
+          <t>31,38; 41,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,1; 35,29</t>
+          <t>25,97; 35,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,34; 41,49</t>
+          <t>31,11; 41,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,82; 37,5</t>
+          <t>27,15; 37,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,68; 51,72</t>
+          <t>42,53; 51,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,64; 27,46</t>
+          <t>20,6; 27,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,56; 36,36</t>
+          <t>28,78; 36,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,41; 29,32</t>
+          <t>22,34; 29,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,85; 45,64</t>
+          <t>38,96; 45,58</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,24; 25,42</t>
+          <t>16,65; 25,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,03; 26,68</t>
+          <t>20,01; 26,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,32; 33,51</t>
+          <t>24,32; 34,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,07; 42,62</t>
+          <t>30,01; 43,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,76; 35,4</t>
+          <t>26,46; 35,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,46; 47,22</t>
+          <t>39,24; 46,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,6; 48,47</t>
+          <t>37,83; 48,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,04; 56,34</t>
+          <t>43,67; 56,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,91; 29,56</t>
+          <t>22,98; 29,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,66; 36,12</t>
+          <t>30,78; 36,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,52; 39,69</t>
+          <t>32,56; 39,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,55; 48,43</t>
+          <t>39,53; 48,35</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,69; 18,15</t>
+          <t>8,84; 18,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,8; 34,84</t>
+          <t>22,2; 35,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,25; 28,99</t>
+          <t>17,91; 28,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,29; 39,92</t>
+          <t>27,39; 38,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,46; 38,23</t>
+          <t>24,62; 37,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,16; 65,67</t>
+          <t>52,5; 65,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,77; 47,04</t>
+          <t>33,98; 47,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33,97; 55,22</t>
+          <t>33,9; 55,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,73; 26,02</t>
+          <t>17,27; 25,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38,9; 48,92</t>
+          <t>38,65; 48,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,77; 36,98</t>
+          <t>27,67; 36,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,24; 46,34</t>
+          <t>34,3; 46,15</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,3; 23,9</t>
+          <t>14,43; 23,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,01; 38,78</t>
+          <t>27,71; 38,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,23; 29,35</t>
+          <t>19,07; 29,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,42; 49,34</t>
+          <t>38,19; 49,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 41,92</t>
+          <t>30,15; 41,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,84; 52,21</t>
+          <t>39,91; 51,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,07; 40,72</t>
+          <t>28,99; 40,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>44,36; 54,48</t>
+          <t>44,48; 54,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,56; 30,87</t>
+          <t>22,96; 30,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>35,45; 43,82</t>
+          <t>34,92; 43,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,69; 33,7</t>
+          <t>25,49; 33,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>43,1; 50,44</t>
+          <t>43,06; 50,38</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,37; 22,57</t>
+          <t>16,33; 22,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,32; 30,55</t>
+          <t>23,18; 30,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,55; 25,16</t>
+          <t>18,61; 25,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,35; 44,72</t>
+          <t>36,04; 44,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,55; 33,63</t>
+          <t>26,42; 33,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,06; 43,66</t>
+          <t>36,04; 43,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,03; 36,13</t>
+          <t>28,73; 35,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>60,94; 80,19</t>
+          <t>60,69; 79,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,37; 26,91</t>
+          <t>22,22; 26,93</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,64; 36,28</t>
+          <t>30,56; 35,91</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,73; 29,87</t>
+          <t>24,9; 29,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,82; 67,04</t>
+          <t>50,79; 66,82</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21,99; 28,09</t>
+          <t>22,19; 28,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,67; 22,9</t>
+          <t>16,78; 22,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,6; 30,02</t>
+          <t>23,52; 30,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,65; 29,06</t>
+          <t>20,49; 29,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,73; 40,92</t>
+          <t>33,93; 41,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,75; 33,24</t>
+          <t>26,53; 33,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,3; 39,14</t>
+          <t>31,99; 39,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>34,34; 40,59</t>
+          <t>34,62; 40,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,0; 33,77</t>
+          <t>28,94; 33,81</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,8; 27,21</t>
+          <t>22,87; 27,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>28,64; 33,47</t>
+          <t>28,91; 33,56</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>28,34; 34,04</t>
+          <t>28,44; 34,27</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,53; 21,24</t>
+          <t>18,38; 21,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>22,79; 26,01</t>
+          <t>22,79; 25,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,53; 25,48</t>
+          <t>22,38; 25,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,92; 34,68</t>
+          <t>30,72; 34,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,79; 35,09</t>
+          <t>31,92; 35,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>37,13; 40,36</t>
+          <t>37,14; 40,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,37; 37,76</t>
+          <t>34,38; 37,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>45,43; 52,48</t>
+          <t>45,5; 53,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,75</t>
+          <t>25,72; 27,96</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>30,43; 32,74</t>
+          <t>30,53; 32,86</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>29,04; 31,24</t>
+          <t>28,96; 31,24</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>39,14; 44,2</t>
+          <t>39,04; 43,55</t>
         </is>
       </c>
     </row>
